--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1372626666666667</v>
+        <v>0.5606006666666666</v>
       </c>
       <c r="H2">
-        <v>0.411788</v>
+        <v>1.681802</v>
       </c>
       <c r="I2">
-        <v>0.03786515932335803</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="J2">
-        <v>0.03786515932335802</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>1.798214185843111</v>
+        <v>10.98803299850911</v>
       </c>
       <c r="R2">
-        <v>16.183927672588</v>
+        <v>98.892296986582</v>
       </c>
       <c r="S2">
-        <v>0.00249454481180177</v>
+        <v>0.01113708056691853</v>
       </c>
       <c r="T2">
-        <v>0.002494544811801769</v>
+        <v>0.01113708056691854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1372626666666667</v>
+        <v>0.5606006666666666</v>
       </c>
       <c r="H3">
-        <v>0.411788</v>
+        <v>1.681802</v>
       </c>
       <c r="I3">
-        <v>0.03786515932335803</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="J3">
-        <v>0.03786515932335802</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>5.651575849960444</v>
+        <v>23.08185660489178</v>
       </c>
       <c r="R3">
-        <v>50.86418264964399</v>
+        <v>207.736709444026</v>
       </c>
       <c r="S3">
-        <v>0.007840061170695838</v>
+        <v>0.0233949512781423</v>
       </c>
       <c r="T3">
-        <v>0.007840061170695835</v>
+        <v>0.0233949512781423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1372626666666667</v>
+        <v>0.5606006666666666</v>
       </c>
       <c r="H4">
-        <v>0.411788</v>
+        <v>1.681802</v>
       </c>
       <c r="I4">
-        <v>0.03786515932335803</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="J4">
-        <v>0.03786515932335802</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>8.747949692617778</v>
+        <v>35.16175844118533</v>
       </c>
       <c r="R4">
-        <v>78.73154723356001</v>
+        <v>316.455825970668</v>
       </c>
       <c r="S4">
-        <v>0.01213545788450725</v>
+        <v>0.03563871137692636</v>
       </c>
       <c r="T4">
-        <v>0.01213545788450725</v>
+        <v>0.03563871137692636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1372626666666667</v>
+        <v>0.5606006666666666</v>
       </c>
       <c r="H5">
-        <v>0.411788</v>
+        <v>1.681802</v>
       </c>
       <c r="I5">
-        <v>0.03786515932335803</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="J5">
-        <v>0.03786515932335802</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>1.987856240355555</v>
+        <v>7.932587447637999</v>
       </c>
       <c r="R5">
-        <v>17.8907061632</v>
+        <v>71.39328702874199</v>
       </c>
       <c r="S5">
-        <v>0.002757622818252733</v>
+        <v>0.00804018931509016</v>
       </c>
       <c r="T5">
-        <v>0.002757622818252732</v>
+        <v>0.008040189315090164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1372626666666667</v>
+        <v>0.5606006666666666</v>
       </c>
       <c r="H6">
-        <v>0.411788</v>
+        <v>1.681802</v>
       </c>
       <c r="I6">
-        <v>0.03786515932335803</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="J6">
-        <v>0.03786515932335802</v>
+        <v>0.1162578751171529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>9.109831366237335</v>
+        <v>37.53776028199488</v>
       </c>
       <c r="R6">
-        <v>81.98848229613601</v>
+        <v>337.839842537954</v>
       </c>
       <c r="S6">
-        <v>0.01263747263810044</v>
+        <v>0.03804694258007556</v>
       </c>
       <c r="T6">
-        <v>0.01263747263810044</v>
+        <v>0.03804694258007557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.061008</v>
       </c>
       <c r="I7">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="J7">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>22.10063523042311</v>
+        <v>33.06603447356978</v>
       </c>
       <c r="R7">
-        <v>198.905717073808</v>
+        <v>297.594310262128</v>
       </c>
       <c r="S7">
-        <v>0.03065876433720082</v>
+        <v>0.03351455988625251</v>
       </c>
       <c r="T7">
-        <v>0.03065876433720082</v>
+        <v>0.03351455988625251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.061008</v>
       </c>
       <c r="I8">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="J8">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>69.45969913950044</v>
+        <v>69.45969913950046</v>
       </c>
       <c r="R8">
-        <v>625.137292255504</v>
+        <v>625.1372922555041</v>
       </c>
       <c r="S8">
-        <v>0.09635689312311432</v>
+        <v>0.07040188772417229</v>
       </c>
       <c r="T8">
-        <v>0.09635689312311431</v>
+        <v>0.07040188772417229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.061008</v>
       </c>
       <c r="I9">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="J9">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>107.5151373472178</v>
+        <v>105.8114693435413</v>
       </c>
       <c r="R9">
-        <v>967.6362361249602</v>
+        <v>952.303224091872</v>
       </c>
       <c r="S9">
-        <v>0.1491487110774337</v>
+        <v>0.1072467528212687</v>
       </c>
       <c r="T9">
-        <v>0.1491487110774337</v>
+        <v>0.1072467528212687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.061008</v>
       </c>
       <c r="I10">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="J10">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>24.43139755235555</v>
+        <v>23.871352592752</v>
       </c>
       <c r="R10">
-        <v>219.8825779712</v>
+        <v>214.842173334768</v>
       </c>
       <c r="S10">
-        <v>0.03389207831252884</v>
+        <v>0.02419515641269652</v>
       </c>
       <c r="T10">
-        <v>0.03389207831252884</v>
+        <v>0.02419515641269652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.061008</v>
       </c>
       <c r="I11">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="J11">
-        <v>0.4653750819761371</v>
+        <v>0.3498521443254984</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>111.9627804189974</v>
+        <v>112.9615169260462</v>
       </c>
       <c r="R11">
-        <v>1007.665023770976</v>
+        <v>1016.653652334416</v>
       </c>
       <c r="S11">
-        <v>0.1553186351258595</v>
+        <v>0.1144937874811084</v>
       </c>
       <c r="T11">
-        <v>0.1553186351258595</v>
+        <v>0.1144937874811084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.277751</v>
+        <v>0.3074363333333334</v>
       </c>
       <c r="H12">
-        <v>0.833253</v>
+        <v>0.922309</v>
       </c>
       <c r="I12">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024288</v>
       </c>
       <c r="J12">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024287</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>3.638686326450333</v>
+        <v>6.025894681313223</v>
       </c>
       <c r="R12">
-        <v>32.748176938053</v>
+        <v>54.233052131819</v>
       </c>
       <c r="S12">
-        <v>0.005047711317639806</v>
+        <v>0.006107633146228907</v>
       </c>
       <c r="T12">
-        <v>0.005047711317639805</v>
+        <v>0.006107633146228905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.277751</v>
+        <v>0.3074363333333334</v>
       </c>
       <c r="H13">
-        <v>0.833253</v>
+        <v>0.922309</v>
       </c>
       <c r="I13">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024288</v>
       </c>
       <c r="J13">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024287</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>11.43596348535433</v>
+        <v>12.65821070696856</v>
       </c>
       <c r="R13">
-        <v>102.923671368189</v>
+        <v>113.923896362717</v>
       </c>
       <c r="S13">
-        <v>0.01586436343619974</v>
+        <v>0.01282991346091404</v>
       </c>
       <c r="T13">
-        <v>0.01586436343619974</v>
+        <v>0.01282991346091403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.277751</v>
+        <v>0.3074363333333334</v>
       </c>
       <c r="H14">
-        <v>0.833253</v>
+        <v>0.922309</v>
       </c>
       <c r="I14">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024288</v>
       </c>
       <c r="J14">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024287</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>17.70147582062334</v>
+        <v>19.28289196120067</v>
       </c>
       <c r="R14">
-        <v>159.31328238561</v>
+        <v>173.546027650806</v>
       </c>
       <c r="S14">
-        <v>0.02455609849883756</v>
+        <v>0.01954445544204465</v>
       </c>
       <c r="T14">
-        <v>0.02455609849883755</v>
+        <v>0.01954445544204465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.277751</v>
+        <v>0.3074363333333334</v>
       </c>
       <c r="H15">
-        <v>0.833253</v>
+        <v>0.922309</v>
       </c>
       <c r="I15">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024288</v>
       </c>
       <c r="J15">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024287</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>4.022427015466667</v>
+        <v>4.350272384171</v>
       </c>
       <c r="R15">
-        <v>36.2018431392</v>
+        <v>39.152451457539</v>
       </c>
       <c r="S15">
-        <v>0.005580049652193712</v>
+        <v>0.004409281810231818</v>
       </c>
       <c r="T15">
-        <v>0.005580049652193711</v>
+        <v>0.004409281810231818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.277751</v>
+        <v>0.3074363333333334</v>
       </c>
       <c r="H16">
-        <v>0.833253</v>
+        <v>0.922309</v>
       </c>
       <c r="I16">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024288</v>
       </c>
       <c r="J16">
-        <v>0.07662014823566021</v>
+        <v>0.06375642587024287</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N16">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O16">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P16">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q16">
-        <v>18.43374337137401</v>
+        <v>20.58590377935478</v>
       </c>
       <c r="R16">
-        <v>165.903690342366</v>
+        <v>185.273134014193</v>
       </c>
       <c r="S16">
-        <v>0.0255719253307894</v>
+        <v>0.02086514201082346</v>
       </c>
       <c r="T16">
-        <v>0.0255719253307894</v>
+        <v>0.02086514201082346</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.200645</v>
+        <v>2.10259</v>
       </c>
       <c r="H17">
-        <v>3.601935</v>
+        <v>6.30777</v>
       </c>
       <c r="I17">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456761</v>
       </c>
       <c r="J17">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456762</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N17">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O17">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P17">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q17">
-        <v>15.729090244215</v>
+        <v>41.21173890089666</v>
       </c>
       <c r="R17">
-        <v>141.561812197935</v>
+        <v>370.9056501080699</v>
       </c>
       <c r="S17">
-        <v>0.02181993711982187</v>
+        <v>0.04177075701395985</v>
       </c>
       <c r="T17">
-        <v>0.02181993711982186</v>
+        <v>0.04177075701395986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.200645</v>
+        <v>2.10259</v>
       </c>
       <c r="H18">
-        <v>3.601935</v>
+        <v>6.30777</v>
       </c>
       <c r="I18">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456761</v>
       </c>
       <c r="J18">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456762</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
         <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q18">
-        <v>49.43468206729499</v>
+        <v>86.57085830355666</v>
       </c>
       <c r="R18">
-        <v>444.9121386056549</v>
+        <v>779.13772473201</v>
       </c>
       <c r="S18">
-        <v>0.06857749796708577</v>
+        <v>0.08774515182151503</v>
       </c>
       <c r="T18">
-        <v>0.06857749796708575</v>
+        <v>0.08774515182151504</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.200645</v>
+        <v>2.10259</v>
       </c>
       <c r="H19">
-        <v>3.601935</v>
+        <v>6.30777</v>
       </c>
       <c r="I19">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456761</v>
       </c>
       <c r="J19">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456762</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N19">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q19">
-        <v>76.51885478955001</v>
+        <v>131.87776268702</v>
       </c>
       <c r="R19">
-        <v>688.66969310595</v>
+        <v>1186.89986418318</v>
       </c>
       <c r="S19">
-        <v>0.1061495975969009</v>
+        <v>0.1336666233373695</v>
       </c>
       <c r="T19">
-        <v>0.1061495975969009</v>
+        <v>0.1336666233373696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.200645</v>
+        <v>2.10259</v>
       </c>
       <c r="H20">
-        <v>3.601935</v>
+        <v>6.30777</v>
       </c>
       <c r="I20">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456761</v>
       </c>
       <c r="J20">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456762</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N20">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O20">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P20">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q20">
-        <v>17.387900976</v>
+        <v>29.75197860663</v>
       </c>
       <c r="R20">
-        <v>156.491108784</v>
+        <v>267.76780745967</v>
       </c>
       <c r="S20">
-        <v>0.02412109664648595</v>
+        <v>0.03015555038943125</v>
       </c>
       <c r="T20">
-        <v>0.02412109664648594</v>
+        <v>0.03015555038943126</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.200645</v>
+        <v>2.10259</v>
       </c>
       <c r="H21">
-        <v>3.601935</v>
+        <v>6.30777</v>
       </c>
       <c r="I21">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456761</v>
       </c>
       <c r="J21">
-        <v>0.3312088808983739</v>
+        <v>0.4360370227456762</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N21">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O21">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P21">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q21">
-        <v>79.68425607873002</v>
+        <v>140.7892000211433</v>
       </c>
       <c r="R21">
-        <v>717.1583047085701</v>
+        <v>1267.10280019029</v>
       </c>
       <c r="S21">
-        <v>0.1105407515680795</v>
+        <v>0.1426989401834004</v>
       </c>
       <c r="T21">
-        <v>0.1105407515680794</v>
+        <v>0.1426989401834005</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3223773333333333</v>
+        <v>0.164415</v>
       </c>
       <c r="H22">
-        <v>0.967132</v>
+        <v>0.493245</v>
       </c>
       <c r="I22">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="J22">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N22">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O22">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P22">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q22">
-        <v>4.223315108703555</v>
+        <v>3.222610233755</v>
       </c>
       <c r="R22">
-        <v>38.009835978332</v>
+        <v>29.003492103795</v>
       </c>
       <c r="S22">
-        <v>0.005858728551894348</v>
+        <v>0.003266323446059484</v>
       </c>
       <c r="T22">
-        <v>0.005858728551894346</v>
+        <v>0.003266323446059484</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3223773333333333</v>
+        <v>0.164415</v>
       </c>
       <c r="H23">
-        <v>0.967132</v>
+        <v>0.493245</v>
       </c>
       <c r="I23">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="J23">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
         <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q23">
-        <v>13.27338303914622</v>
+        <v>6.769530753965001</v>
       </c>
       <c r="R23">
-        <v>119.460447352316</v>
+        <v>60.92577678568502</v>
       </c>
       <c r="S23">
-        <v>0.01841329528820026</v>
+        <v>0.006861356297107091</v>
       </c>
       <c r="T23">
-        <v>0.01841329528820025</v>
+        <v>0.006861356297107091</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3223773333333333</v>
+        <v>0.164415</v>
       </c>
       <c r="H24">
-        <v>0.967132</v>
+        <v>0.493245</v>
       </c>
       <c r="I24">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="J24">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N24">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q24">
-        <v>20.54557704964889</v>
+        <v>10.31236824687</v>
       </c>
       <c r="R24">
-        <v>184.91019344684</v>
+        <v>92.81131422183002</v>
       </c>
       <c r="S24">
-        <v>0.02850153393192436</v>
+        <v>0.01045225073647911</v>
       </c>
       <c r="T24">
-        <v>0.02850153393192435</v>
+        <v>0.01045225073647911</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3223773333333333</v>
+        <v>0.164415</v>
       </c>
       <c r="H25">
-        <v>0.967132</v>
+        <v>0.493245</v>
       </c>
       <c r="I25">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="J25">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N25">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O25">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P25">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q25">
-        <v>4.668711524977778</v>
+        <v>2.326498063155</v>
       </c>
       <c r="R25">
-        <v>42.0184037248</v>
+        <v>20.938482568395</v>
       </c>
       <c r="S25">
-        <v>0.006476597840302296</v>
+        <v>0.002358055929723979</v>
       </c>
       <c r="T25">
-        <v>0.006476597840302294</v>
+        <v>0.002358055929723979</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3223773333333333</v>
+        <v>0.164415</v>
       </c>
       <c r="H26">
-        <v>0.967132</v>
+        <v>0.493245</v>
       </c>
       <c r="I26">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="J26">
-        <v>0.08893072956647084</v>
+        <v>0.03409653194142955</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N26">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O26">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P26">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q26">
-        <v>21.39549823912267</v>
+        <v>11.009210697985</v>
       </c>
       <c r="R26">
-        <v>192.559484152104</v>
+        <v>99.082896281865</v>
       </c>
       <c r="S26">
-        <v>0.0296805739541496</v>
+        <v>0.01115854553205988</v>
       </c>
       <c r="T26">
-        <v>0.02968057395414959</v>
+        <v>0.01115854553205988</v>
       </c>
     </row>
   </sheetData>
